--- a/EjerciciosLog/PrezConfig2.xlsx
+++ b/EjerciciosLog/PrezConfig2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sal8b\OneDrive\Escritorio\LibreriaMoodleAnalisis\EjerciciosLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32CDB8-E1CB-47C6-B73C-8EF179D87049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CADB49-04CC-45E6-8426-0B8B55B350FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="4350" windowWidth="10155" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Nombre completo del usuario</t>
   </si>
   <si>
+    <t>Incluido</t>
+  </si>
+  <si>
     <t>CUADRIELLO GALDÓS, ÁNGELA</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>CUEVAS RODRIGUEZ, SARA</t>
@@ -464,107 +470,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -578,66 +625,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/EjerciciosLog/PrezConfig2.xlsx
+++ b/EjerciciosLog/PrezConfig2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sal8b\OneDrive\Escritorio\LibreriaMoodleAnalisis\EjerciciosLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CADB49-04CC-45E6-8426-0B8B55B350FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E179FC5-2B1E-41B9-A72A-AE2463410F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Nombre completo del usuario</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,20 +594,32 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EjerciciosLog/PrezConfig2.xlsx
+++ b/EjerciciosLog/PrezConfig2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sal8b\OneDrive\Escritorio\LibreriaMoodleAnalisis\EjerciciosLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E179FC5-2B1E-41B9-A72A-AE2463410F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DFABAB-09D5-475D-8FE4-DF202FFF8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -29,46 +29,46 @@
     <t>Incluido</t>
   </si>
   <si>
+    <t>CASTILLO ROMERO, LÍA</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CIDÓN HOFFMAN, JAIME</t>
+  </si>
+  <si>
+    <t>CIMAS CAMPOS, NOIVE</t>
+  </si>
+  <si>
     <t>CUADRIELLO GALDÓS, ÁNGELA</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>CUEVAS RODRIGUEZ, SARA</t>
   </si>
   <si>
+    <t>DE SANTIAGO ABASCAL, GABRIELA</t>
+  </si>
+  <si>
+    <t>DE SÁDABA IGAREDA, CELIA</t>
+  </si>
+  <si>
     <t>GUTIERREZ GUTIERREZ, MARTA</t>
   </si>
   <si>
-    <t>DE SÁDABA IGAREDA, CELIA</t>
+    <t>MUÑOZ GARCÍA, JAIME</t>
+  </si>
+  <si>
+    <t>Pérez González, Docente</t>
+  </si>
+  <si>
+    <t>REVUELTA DIAZ, CRISTINA</t>
+  </si>
+  <si>
+    <t>RUIZ CORTÉS, CARLOTA</t>
   </si>
   <si>
     <t>SAL SARRIA, SAÚL</t>
-  </si>
-  <si>
-    <t>DE SANTIAGO ABASCAL, GABRIELA</t>
-  </si>
-  <si>
-    <t>CIDÓN HOFFMAN, JAIME</t>
-  </si>
-  <si>
-    <t>RUIZ CORTÉS, CARLOTA</t>
-  </si>
-  <si>
-    <t>Pérez González, Docente</t>
-  </si>
-  <si>
-    <t>CIMAS CAMPOS, NOIVE</t>
-  </si>
-  <si>
-    <t>CASTILLO ROMERO, LÍA</t>
-  </si>
-  <si>
-    <t>MUÑOZ GARCÍA, JAIME</t>
-  </si>
-  <si>
-    <t>REVUELTA DIAZ, CRISTINA</t>
   </si>
   <si>
     <t>Contexto del evento</t>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A15" sqref="A15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EjerciciosLog/PrezConfig2.xlsx
+++ b/EjerciciosLog/PrezConfig2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sal8b\OneDrive\Escritorio\LibreriaMoodleAnalisis\EjerciciosLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DFABAB-09D5-475D-8FE4-DF202FFF8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7080F-E47C-42E5-978E-E12104F42C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Nombre completo del usuario</t>
   </si>
   <si>
-    <t>Incluido</t>
+    <t>Excluido</t>
   </si>
   <si>
     <t>CASTILLO ROMERO, LÍA</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>CIDÓN HOFFMAN, JAIME</t>
@@ -473,7 +470,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B18"/>
+      <selection activeCell="A14" sqref="A14:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,136 +487,85 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -637,66 +583,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/EjerciciosLog/PrezConfig2.xlsx
+++ b/EjerciciosLog/PrezConfig2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sal8b\OneDrive\Escritorio\LibreriaMoodleAnalisis\EjerciciosLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7080F-E47C-42E5-978E-E12104F42C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF1CE95-7E95-4B94-B8ED-D6E7E24A0F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Recursos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Nombre completo del usuario</t>
   </si>
@@ -122,7 +122,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,10 +509,13 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A18"/>
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -569,27 +611,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="48.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -597,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -605,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -613,7 +661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -621,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -629,7 +677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -637,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -646,6 +694,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EjerciciosLog/PrezConfig2.xlsx
+++ b/EjerciciosLog/PrezConfig2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sal8b\OneDrive\Escritorio\LibreriaMoodleAnalisis\EjerciciosLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF1CE95-7E95-4B94-B8ED-D6E7E24A0F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D67A2-4004-4EE9-82EB-E6FA434E6E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Nombre completo del usuario</t>
   </si>
@@ -71,40 +71,40 @@
     <t>Contexto del evento</t>
   </si>
   <si>
+    <t>IDRecurso</t>
+  </si>
+  <si>
     <t>Alias</t>
   </si>
   <si>
-    <t>Curso: G000 - Curso de Testing - Curso 2018-2019</t>
+    <t>Foro: Noticias de clase</t>
+  </si>
+  <si>
+    <t>Carpeta: Exámenes</t>
   </si>
   <si>
     <t>Carpeta: Recursos del Alumnado</t>
   </si>
   <si>
+    <t>Carpeta: Papeleo</t>
+  </si>
+  <si>
+    <t>Tarea: Entrega inicial</t>
+  </si>
+  <si>
     <t>Carpeta: Entrega inicial</t>
   </si>
   <si>
-    <t>Tarea: Entrega inicial</t>
-  </si>
-  <si>
-    <t>Carpeta: Papeleo</t>
-  </si>
-  <si>
-    <t>Foro: Noticias de clase</t>
-  </si>
-  <si>
-    <t>Carpeta: Exámenes</t>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>JAVI</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ PÉREZ, DANIEL</t>
   </si>
   <si>
     <t>Sanchez Barreiro, Pablo</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>JAVI</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ PÉREZ, DANIEL</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,41 +592,44 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -634,62 +637,97 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>5002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>5011</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>5012</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5013</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>5014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8">
+        <v>5015</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9">
+        <v>5016</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
